--- a/pred_ohlcv/54_21/2020-01-21 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 DAC ohlcv.xlsx
@@ -11832,7 +11832,7 @@
         <v>2356504.281161261</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>2314193.623561261</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>2104893.615561261</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>2279777.818761261</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>2311735.451961261</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>2278713.396361261</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>2105149.806161261</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2082964.448261261</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>2044146.744261261</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>2067830.351961261</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>2107875.069961261</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>2136458.486061261</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>1199690.43296126</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>1153317.502661261</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>533716.0597612605</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>768557.4995612608</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>817912.1140612608</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>774522.2575612608</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>736172.7195612609</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>690224.7898612609</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>720476.3874612609</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>688718.6428612609</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>645407.3580612609</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>673175.2160612609</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>628545.5431612609</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>590825.0799612609</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>630961.0278612609</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>614937.230761261</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>661762.475961261</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>723552.454361261</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>649895.497661261</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>700644.0038612611</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>667610.147261261</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>5518476.61316126</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>6994984.80676126</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>7105600.58946126</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>6207864.204296961</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>6229314.786596961</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>5931612.114596961</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>5972465.678996961</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>6020686.137796961</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>5335111.297896961</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>5386479.991396961</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>5946866.734196961</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>5816680.374196961</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>5613640.951096959</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>5597675.855296959</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 DAC ohlcv.xlsx
@@ -11832,7 +11832,7 @@
         <v>2356504.281161261</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>2314193.623561261</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>2104893.615561261</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>2279777.818761261</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>2311735.451961261</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>2278713.396361261</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>2105149.806161261</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2082964.448261261</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>2044146.744261261</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>2067830.351961261</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>2107875.069961261</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>2136458.486061261</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>1199690.43296126</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>1153317.502661261</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>533716.0597612605</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>768557.4995612608</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>817912.1140612608</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>774522.2575612608</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>736172.7195612609</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>690224.7898612609</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>720476.3874612609</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>688718.6428612609</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>645407.3580612609</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>673175.2160612609</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>628545.5431612609</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>590825.0799612609</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>630961.0278612609</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>614937.230761261</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>661762.475961261</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>723552.454361261</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>649895.497661261</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>700644.0038612611</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>667610.147261261</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>510929.7893612611</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>5518476.61316126</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>6994984.80676126</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>7105600.58946126</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>7594062.53256126</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>6855931.60096126</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>6811850.47196126</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>6811850.47196126</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>7026456.35516126</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>7251968.561096961</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>7289312.322396961</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>6803514.707796961</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>6440478.734796961</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>6395813.305296961</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>6809568.170396961</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>6298554.962896962</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>6257510.199896961</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>6207864.204296961</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>6229314.786596961</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>5931612.114596961</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>5972465.678996961</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>6020686.137796961</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>5335111.297896961</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>5386479.991396961</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>5946866.734196961</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>5790173.727596961</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>5613640.951096959</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>5597675.855296959</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
